--- a/Proyecto Final/Codigos hechos/Codig final UNO/datos a tener en cuenta/costos insumos .xlsx
+++ b/Proyecto Final/Codigos hechos/Codig final UNO/datos a tener en cuenta/costos insumos .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programacion\Programming\Proyecto Final\Codigos hechos\Codig final UNO\datos a tener en cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9CDBF-2057-4AAF-8721-D38120211754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB99FF-9BA2-4790-9778-BCF5C7B930EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="1605" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Insumo</t>
   </si>
@@ -49,21 +49,6 @@
     <t>precio tot</t>
   </si>
   <si>
-    <t>Resistencia 4k7</t>
-  </si>
-  <si>
-    <t>Resistencia 1k</t>
-  </si>
-  <si>
-    <t>Resistencia 220</t>
-  </si>
-  <si>
-    <t>Resistencia 2k5</t>
-  </si>
-  <si>
-    <t>Resistencia 5k6</t>
-  </si>
-  <si>
     <t>Capacitor 20pF</t>
   </si>
   <si>
@@ -82,9 +67,6 @@
     <t>Transistor pnp BC558</t>
   </si>
   <si>
-    <t>pulsadores 12mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bornera 2 Pines Paso 5 mm </t>
   </si>
   <si>
@@ -103,10 +85,40 @@
     <t xml:space="preserve">IDC 3x2 macho y hembra </t>
   </si>
   <si>
-    <t>Regleta de pines hembra</t>
-  </si>
-  <si>
     <t>Tot</t>
+  </si>
+  <si>
+    <t>Resistencia 4k7 1/4</t>
+  </si>
+  <si>
+    <t>Resistencia 1k 1/4</t>
+  </si>
+  <si>
+    <t>Resistencia 220 1/4</t>
+  </si>
+  <si>
+    <t>Resistencia 2k5 1/4</t>
+  </si>
+  <si>
+    <t>Resistencia 5k6 1/4</t>
+  </si>
+  <si>
+    <t>pin header hembra 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulsador microswitch 12mm </t>
+  </si>
+  <si>
+    <t>Regulador Lm1117t</t>
+  </si>
+  <si>
+    <t>Capacitor 10uF</t>
+  </si>
+  <si>
+    <t>Termocontraible 6mm 1mt</t>
+  </si>
+  <si>
+    <t>cloruro ferrico 500cc</t>
   </si>
 </sst>
 </file>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,12 +464,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -471,12 +483,12 @@
       </c>
       <c r="E2">
         <f>SUM(D:D)</f>
-        <v>3484.1</v>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -485,36 +497,36 @@
         <v>6.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">(B3*C3)</f>
+        <f t="shared" ref="D3:D25" si="0">(B3*C3)</f>
         <v>26</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E20" si="1">SUM(D:D)</f>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>6.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -527,13 +539,13 @@
         <v>19.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -546,32 +558,32 @@
         <v>19.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>16.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>50.699999999999996</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -584,236 +596,335 @@
         <v>50.699999999999996</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>16.899999999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>50.699999999999996</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>50.699999999999996</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>35.6</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>777</v>
+        <v>35.6</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1554</v>
+        <v>178</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>310</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>777</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>1554</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>68</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E20">
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E21">
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E22">
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="E20">
+      <c r="E23">
+        <f>SUM(D:D)</f>
+        <v>4866.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E25" si="1">SUM(D:D)</f>
+        <v>4866.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>800</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="1"/>
-        <v>3484.1</v>
+        <v>4866.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>